--- a/biology/Botanique/Pariétaire_officinale/Pariétaire_officinale.xlsx
+++ b/biology/Botanique/Pariétaire_officinale/Pariétaire_officinale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Pari%C3%A9taire_officinale</t>
+          <t>Pariétaire_officinale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Parietaria officinalis
-La Pariétaire officinale (Parietaria officinalis L.) est une espèce de plantes à fleurs dicotylédones de la famille des Urticaceae. C'est une plante herbacée vivace que l'on trouve souvent accrochée sur des parois rocheuses et les vieux murs (comme l'indiquent ses noms latin et français), étalant ses tiges rousses. Elle a reçu de nombreux noms vernaculaires évocateurs : Perce-muraille, Casse-pierre, Espargoule, Gamberoussette[1] (Haute-Provence), ou encore Herbe à bouteille. Elle est couverte de poils non urticants. Son pollen peut être allergène et il contribue au syndrome du rhume des foins, surtout dans les régions du sud de l'Europe.
+La Pariétaire officinale (Parietaria officinalis L.) est une espèce de plantes à fleurs dicotylédones de la famille des Urticaceae. C'est une plante herbacée vivace que l'on trouve souvent accrochée sur des parois rocheuses et les vieux murs (comme l'indiquent ses noms latin et français), étalant ses tiges rousses. Elle a reçu de nombreux noms vernaculaires évocateurs : Perce-muraille, Casse-pierre, Espargoule, Gamberoussette (Haute-Provence), ou encore Herbe à bouteille. Elle est couverte de poils non urticants. Son pollen peut être allergène et il contribue au syndrome du rhume des foins, surtout dans les régions du sud de l'Europe.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Pari%C3%A9taire_officinale</t>
+          <t>Pariétaire_officinale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Parietaria désignait déjà en latin une plante croissant sur les murs, peut-être une pariétaire. 
-Le terme était une substantification au féminin de l’adjectif parietarius « de mur », dérivé de paries, -etis « paroi » ; officinalis officinal, c'est-à-dire en vente dans les officines des pharmaciens. Le terme vient du latin officina « atelier, officine » et fait référence aux propriétés diurétiques de la plante[2], allusion qui est plus explicite encore dans l'un de ses noms vernaculaires de France : « èrba pïse » (« herbe-pisse ») signalé par une étude ethnobotanique de Françoise et Grégoire Nicollier de 1984 sur les plantes de la vie quotidienne à Bagnes[3].
+Le terme était une substantification au féminin de l’adjectif parietarius « de mur », dérivé de paries, -etis « paroi » ; officinalis officinal, c'est-à-dire en vente dans les officines des pharmaciens. Le terme vient du latin officina « atelier, officine » et fait référence aux propriétés diurétiques de la plante, allusion qui est plus explicite encore dans l'un de ses noms vernaculaires de France : « èrba pïse » (« herbe-pisse ») signalé par une étude ethnobotanique de Françoise et Grégoire Nicollier de 1984 sur les plantes de la vie quotidienne à Bagnes.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Pari%C3%A9taire_officinale</t>
+          <t>Pariétaire_officinale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>C'est une plante herbacée, parfois rougeâtre, à tige velue, dressée, peu ramifiée, assez cassante, mesurant de 10 à 70 cm de hauteur et à forte souche. 
 Les poils couvrant les tiges et les nervures sont courbes et non urticants.
@@ -555,7 +571,7 @@
 des fleurs femelles (en général, une au centre du glomérule),
 quelques rares fleurs mâles et
 des fleurs hermaphrodites entourées de bractées libres et d’un périgone 4-lobé, croissant en tube campanulé (&lt; 3 mm) après la fécondation. Les 4 étamines sont repliées dans le bouton et se redressent brutalement à l’anthèse en envoyant un nuage de pollen au loin.
-La floraison s’étale d'avril-mai à octobre. Sur un même pied, la plante fleurit et pollinise deux fois : au printemps, puis une seconde fois en automne[4].
+La floraison s’étale d'avril-mai à octobre. Sur un même pied, la plante fleurit et pollinise deux fois : au printemps, puis une seconde fois en automne.
 Le fruit : c'est un akène, ovoïde, noir, brillant, d’environ 1,5-1,8 mm, qui reste entouré du périgone sec (accrescent pour la fleur hermaphrodite, non accrescent pour la fleur femelle).</t>
         </is>
       </c>
